--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelTroGiaTroCuocNew.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelTroGiaTroCuocNew.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A97F2EF-5565-4F3D-93F2-F5FF8C50771A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7866C0-2DA9-4E4F-A871-9EFBDB41FD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="4755" windowWidth="21420" windowHeight="10725" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="13905" yWindow="1110" windowWidth="12195" windowHeight="11145" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,22 +25,262 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Đơn giá</t>
-  </si>
-  <si>
-    <t>240104172304</t>
-  </si>
-  <si>
-    <t>Mã sản phẩm dịch vụ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tên hàng hóa, dịch vụ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Mức giá</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hỗ trợ xe buýt nội tỉnh theo Km hoạt động</t>
+    </r>
+  </si>
+  <si>
+    <t>6149,92</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hỗ trợ vé xe buýt cho các đối tượng thuộc diện ưu tiên – Đối tượng 1 (100%) cự ly dưới 25km</t>
+    </r>
+  </si>
+  <si>
+    <t>170000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hỗ trợ vé xe buýt cho các đối tượng thuộc diện ưu tiên – Đối tượng 1 (100%) cự ly trên 25km</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hỗ trợ vé xe buýt cho các đối tượng thuộc diện ưu tiên – Đối tượng 1 (100%) liên tuyến</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hỗ trợ vé xe buýt cho các đối tượng thuộc diện ưu tiên – Đối tượng 2 (70%) cự ly dưới 25km</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hỗ trợ vé xe buýt cho các đối tượng thuộc diện ưu tiên – Đối tượng 2 (70%) cự ly trên 25km</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hỗ trợ vé xe buýt cho các đối tượng thuộc diện ưu tiên – Đối tượng 2 (70%) liên tuyến</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xe ô tô tải có khối lượng hàng chuyên chở cho phép tham gia giao thông trên 20 tấn, xe ô tô đầu kéo có khối lượng kéo theo cho phép tham gia giao thông trên 20 tấn và các loại xe ô tô chuyên dùng</t>
+    </r>
+  </si>
+  <si>
+    <t>570000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xe ô tô tải có khối lượng hàng chuyên chở cho phép tham gia giao thông trên 7 tấn đến 20 tấn, xe ô tô đầu kéo có khối lượng kéo theo cho phép tham gia giao thông đến 20 tấn và các loại máy kéo</t>
+    </r>
+  </si>
+  <si>
+    <t>360000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xe ô tô tải có khối lượng hàng chuyên chở cho phép tham gia giao thông trên 2 tấn đến 7 tấn</t>
+    </r>
+  </si>
+  <si>
+    <t>330000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xe ô tô tải có khối lượng hàng chuyên chở cho phép tham gia giao thông đến 2 tấn</t>
+    </r>
+  </si>
+  <si>
+    <t>290000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Máy kéo, xe chở hàng bốn bánh có gắn động cơ, xe chở người bốn bánh có gắn động cơ và các loại phương tiện vận chuyển tương tự</t>
+    </r>
+  </si>
+  <si>
+    <t>190000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rơ moóc, sơ mi rơ moóc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xe ô tô chở người trên 40 ghế (kể cả lái xe), xe buýt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xe ô tô chở người từ 25 đến 40 ghế (kể cả lái xe)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xe ô tô chở người từ 10 đến 24 ghế (kể cả lái xe)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xe ô tô chở người dưới 10 chỗ ngồi, xe ô tô cứu thương</t>
+    </r>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xe ba bánh và các loại phương tiện vận chuyển tương tự</t>
+    </r>
+  </si>
+  <si>
+    <t>110000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thay đổi mục đích sử dụng (công dụng) của xe cơ giới, xe máy chuyên dùng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thay đổi hệ thống, tổng thành xe cơ giới, xe máy chuyên dùng</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,16 +289,32 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -66,13 +322,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,20 +723,172 @@
     <col min="6" max="6" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>5000</v>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7">
+        <v>119000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7">
+        <v>196000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="15">
+        <v>910000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="17">
+        <v>560000</v>
       </c>
     </row>
   </sheetData>
